--- a/data/trans_orig/P33B3_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>44317</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32300</v>
+        <v>31543</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60187</v>
+        <v>58623</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08048569335377923</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05866066322994174</v>
+        <v>0.05728650205159547</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1093076286624786</v>
+        <v>0.1064680735726343</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -762,19 +762,19 @@
         <v>33550</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24279</v>
+        <v>25188</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43907</v>
+        <v>42795</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06869305241262358</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04971112980034603</v>
+        <v>0.05157130633703227</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08989805941413728</v>
+        <v>0.08762051641766121</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -783,19 +783,19 @@
         <v>77867</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63279</v>
+        <v>63110</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96494</v>
+        <v>94348</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07494238959082118</v>
+        <v>0.07494238959082117</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06090235022024924</v>
+        <v>0.06073987230102924</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09286916545625938</v>
+        <v>0.09080393051909277</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>35235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24042</v>
+        <v>25853</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48911</v>
+        <v>47410</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06399263705382639</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04366410487131762</v>
+        <v>0.046951839592794</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08882897987853547</v>
+        <v>0.08610364911174333</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -833,19 +833,19 @@
         <v>42938</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>33435</v>
+        <v>34139</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54678</v>
+        <v>54165</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08791269623260484</v>
+        <v>0.08791269623260481</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06845759246510236</v>
+        <v>0.0698982473906465</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1119504689861831</v>
+        <v>0.1108999586431083</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>103</v>
@@ -854,19 +854,19 @@
         <v>78173</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64665</v>
+        <v>63076</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>93945</v>
+        <v>94386</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07523661155602195</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06223590942664327</v>
+        <v>0.06070669937405303</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09041577286496953</v>
+        <v>0.09084102599543245</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>91849</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75891</v>
+        <v>74356</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>110729</v>
+        <v>111238</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1668110737254295</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1378294243352385</v>
+        <v>0.1350407977870144</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2010988221938455</v>
+        <v>0.2020245123314933</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>157</v>
@@ -904,19 +904,19 @@
         <v>104461</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>88483</v>
+        <v>89291</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>120911</v>
+        <v>122227</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2138792626131155</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1811653429468808</v>
+        <v>0.1828198404741275</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2475609554376463</v>
+        <v>0.2502546634608235</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>260</v>
@@ -925,19 +925,19 @@
         <v>196310</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>172491</v>
+        <v>174557</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>223238</v>
+        <v>221049</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1889361659654685</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1660118658787232</v>
+        <v>0.1679998692752336</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2148526715029775</v>
+        <v>0.2127455053563386</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>379216</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>355415</v>
+        <v>356737</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>401996</v>
+        <v>402093</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.688710595866965</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.645483334051743</v>
+        <v>0.6478839228220553</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.730081424833503</v>
+        <v>0.7302583942819489</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>414</v>
@@ -975,19 +975,19 @@
         <v>307462</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>289013</v>
+        <v>286562</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>326900</v>
+        <v>324572</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6295149887416562</v>
+        <v>0.6295149887416561</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5917417542876191</v>
+        <v>0.5867228566292152</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6693128202928244</v>
+        <v>0.6645467654751871</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>782</v>
@@ -996,19 +996,19 @@
         <v>686679</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>660097</v>
+        <v>656329</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>718794</v>
+        <v>712410</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6608848328876885</v>
+        <v>0.6608848328876884</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6353020315093253</v>
+        <v>0.6316754499347066</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.691793744710627</v>
+        <v>0.6856500246151958</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>32016</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21998</v>
+        <v>22788</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>43873</v>
+        <v>44694</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06639243767648631</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04561865127097677</v>
+        <v>0.04725526440379733</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09098054192921821</v>
+        <v>0.09268243697574025</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>50</v>
@@ -1121,19 +1121,19 @@
         <v>34439</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26004</v>
+        <v>25792</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>44453</v>
+        <v>44975</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08138820551930322</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06145348907641924</v>
+        <v>0.06095271244196044</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.105053139820064</v>
+        <v>0.1062876354717335</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>85</v>
@@ -1142,19 +1142,19 @@
         <v>66455</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>53531</v>
+        <v>52235</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>80852</v>
+        <v>81505</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.07340103255313103</v>
+        <v>0.07340103255313102</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05912644585014976</v>
+        <v>0.05769447969567491</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0893029383114225</v>
+        <v>0.09002467791831135</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>30058</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20421</v>
+        <v>20315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43006</v>
+        <v>42692</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0623315307257813</v>
+        <v>0.06233153072578129</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04234809016486799</v>
+        <v>0.04212789952387636</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08918354534839612</v>
+        <v>0.08853104367315882</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -1192,19 +1192,19 @@
         <v>34090</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25402</v>
+        <v>25693</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44880</v>
+        <v>44820</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08056438663305683</v>
+        <v>0.08056438663305684</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06003163981223106</v>
+        <v>0.06071864391298256</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1060630672888785</v>
+        <v>0.105920765930546</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -1213,19 +1213,19 @@
         <v>64148</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52276</v>
+        <v>50588</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80904</v>
+        <v>78736</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07085304838581519</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05773962335338122</v>
+        <v>0.05587567864557421</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08936077706736835</v>
+        <v>0.08696542011695946</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>91894</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>75374</v>
+        <v>76239</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110786</v>
+        <v>112771</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1905626111009333</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1563039244188034</v>
+        <v>0.1580985354344427</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.229739643410968</v>
+        <v>0.2338553291146491</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>136</v>
@@ -1263,19 +1263,19 @@
         <v>90899</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78280</v>
+        <v>76735</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>106848</v>
+        <v>104521</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2148193748103414</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1849962055342597</v>
+        <v>0.1813448054201392</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2525100628762877</v>
+        <v>0.247011049733825</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>238</v>
@@ -1284,19 +1284,19 @@
         <v>182793</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>161026</v>
+        <v>160776</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>205749</v>
+        <v>207762</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2018995317334552</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.177856782856373</v>
+        <v>0.1775806354301639</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2272549781888538</v>
+        <v>0.2294778632140181</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>328256</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>306014</v>
+        <v>303474</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>349440</v>
+        <v>348542</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6807134204967993</v>
+        <v>0.6807134204967991</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.634589762028883</v>
+        <v>0.6293206387817544</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.724642309040184</v>
+        <v>0.7227808082014856</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>354</v>
@@ -1334,19 +1334,19 @@
         <v>263715</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>245429</v>
+        <v>247005</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>279921</v>
+        <v>280432</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6232280330372983</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5800142641892008</v>
+        <v>0.5837376657037318</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6615270558474086</v>
+        <v>0.6627358805096178</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>664</v>
@@ -1355,19 +1355,19 @@
         <v>591971</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>566150</v>
+        <v>564447</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>620300</v>
+        <v>616715</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6538463873275986</v>
+        <v>0.6538463873275988</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6253265612880275</v>
+        <v>0.6234454298176088</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.685136554888931</v>
+        <v>0.6811766599789115</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>48971</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37584</v>
+        <v>37333</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64768</v>
+        <v>63874</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1038384094049188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07969342228336918</v>
+        <v>0.07916127014772577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1373330020742577</v>
+        <v>0.1354371292775911</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -1480,19 +1480,19 @@
         <v>24772</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18644</v>
+        <v>17815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32925</v>
+        <v>33168</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1321183269757847</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09943391771736723</v>
+        <v>0.09501236151610035</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1756042910149136</v>
+        <v>0.1769010396160945</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>96</v>
@@ -1501,19 +1501,19 @@
         <v>73743</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>60237</v>
+        <v>60739</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>90092</v>
+        <v>90713</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1118832210570928</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09139151711493314</v>
+        <v>0.09215292675995121</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1366873658822537</v>
+        <v>0.1376302277700698</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>45584</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35045</v>
+        <v>34149</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>59024</v>
+        <v>60063</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09665641519949579</v>
+        <v>0.09665641519949576</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07430867918291834</v>
+        <v>0.07240941113057767</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1251532234041494</v>
+        <v>0.1273574465198004</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>41</v>
@@ -1551,19 +1551,19 @@
         <v>28415</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20602</v>
+        <v>21242</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>38924</v>
+        <v>38429</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1515482066292191</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1098798562788312</v>
+        <v>0.1132912702268151</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2076003271887548</v>
+        <v>0.204956458760971</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>93</v>
@@ -1572,19 +1572,19 @@
         <v>73999</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>58753</v>
+        <v>60752</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>89554</v>
+        <v>91046</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1122715287229338</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08914060612867582</v>
+        <v>0.09217272988168337</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1358714699018298</v>
+        <v>0.1381344174200602</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>85537</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70300</v>
+        <v>71606</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>104058</v>
+        <v>105050</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1813724533875133</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1490628783628833</v>
+        <v>0.1518324176365701</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2206439131916225</v>
+        <v>0.2227476917222393</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -1622,19 +1622,19 @@
         <v>33970</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26701</v>
+        <v>26047</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42489</v>
+        <v>43499</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1811777057145048</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1424069581504669</v>
+        <v>0.13891980441638</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2266116801424923</v>
+        <v>0.2319974185076494</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>156</v>
@@ -1643,19 +1643,19 @@
         <v>119508</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101753</v>
+        <v>100153</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>139446</v>
+        <v>138745</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.181317053355136</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1543801116112953</v>
+        <v>0.1519526672578915</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2115666978100952</v>
+        <v>0.2105038937524359</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>291519</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>270685</v>
+        <v>270089</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>313826</v>
+        <v>312451</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6181327220080721</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5739564399873254</v>
+        <v>0.5726931077822688</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6654319310768761</v>
+        <v>0.6625162617549671</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>148</v>
@@ -1693,19 +1693,19 @@
         <v>100340</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>88936</v>
+        <v>89129</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>112037</v>
+        <v>111401</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5351557606804913</v>
+        <v>0.5351557606804914</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.474331878970979</v>
+        <v>0.4753607523091166</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5975392629036118</v>
+        <v>0.5941504166761253</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>432</v>
@@ -1714,19 +1714,19 @@
         <v>391859</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>368643</v>
+        <v>366059</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>417546</v>
+        <v>414986</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5945281968648375</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5593052251356815</v>
+        <v>0.5553849449962431</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6335010573859018</v>
+        <v>0.6296168410200412</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>106243</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>88645</v>
+        <v>88880</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>128948</v>
+        <v>125884</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.09386725738141102</v>
+        <v>0.09386725738141104</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07831890436540859</v>
+        <v>0.07852701223671184</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1139277417544349</v>
+        <v>0.1112201279890876</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>126</v>
@@ -1839,19 +1839,19 @@
         <v>86176</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>71188</v>
+        <v>71572</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>101475</v>
+        <v>102074</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1000638521046407</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08265996920643923</v>
+        <v>0.08310598469380108</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1178287822831089</v>
+        <v>0.1185242922834431</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>245</v>
@@ -1860,19 +1860,19 @@
         <v>192419</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>168878</v>
+        <v>168973</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>217165</v>
+        <v>217927</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09654484544070177</v>
+        <v>0.0965448454407018</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08473335168294756</v>
+        <v>0.08478116914368711</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1089608493802169</v>
+        <v>0.1093433595560393</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>84776</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>68221</v>
+        <v>68105</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>105618</v>
+        <v>108819</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07490121156500909</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06027463195885414</v>
+        <v>0.06017177091245367</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09331523665549363</v>
+        <v>0.09614329913488946</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>140</v>
@@ -1910,19 +1910,19 @@
         <v>90058</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>75588</v>
+        <v>76987</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>104693</v>
+        <v>106785</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1045711375491354</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08776906005831127</v>
+        <v>0.08939436505216031</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1215644366258354</v>
+        <v>0.1239936046243595</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>235</v>
@@ -1931,19 +1931,19 @@
         <v>174834</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>152597</v>
+        <v>153132</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>198338</v>
+        <v>199654</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08772177561405352</v>
+        <v>0.08772177561405353</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07656450067283681</v>
+        <v>0.07683271134379428</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09951450091225199</v>
+        <v>0.1001748290453641</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>200004</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>176929</v>
+        <v>176233</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>226018</v>
+        <v>227155</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1767064679240048</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1563195971971811</v>
+        <v>0.1557045897912851</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.199690330812043</v>
+        <v>0.2006952354256324</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>281</v>
@@ -1981,19 +1981,19 @@
         <v>166134</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>148873</v>
+        <v>149277</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>188053</v>
+        <v>185129</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1929079451118894</v>
+        <v>0.1929079451118893</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1728645669264029</v>
+        <v>0.1733336706158966</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.218358941748283</v>
+        <v>0.2149631888877514</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>511</v>
@@ -2002,19 +2002,19 @@
         <v>366138</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>336027</v>
+        <v>335921</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>396583</v>
+        <v>400044</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1837072294387971</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1685991309514453</v>
+        <v>0.1685459312744142</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1989823706678543</v>
+        <v>0.200719281029346</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>740820</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>706449</v>
+        <v>706786</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>771972</v>
+        <v>773505</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6545250631295749</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6241577210656485</v>
+        <v>0.6244558214419088</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6820485831561777</v>
+        <v>0.6834034422222593</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>683</v>
@@ -2052,19 +2052,19 @@
         <v>518843</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>494552</v>
+        <v>495236</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>541876</v>
+        <v>542038</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6024570652343345</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5742522682023238</v>
+        <v>0.5750459881492771</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6292022115573198</v>
+        <v>0.6293900341950004</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1357</v>
@@ -2073,19 +2073,19 @@
         <v>1259662</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1219935</v>
+        <v>1217879</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1299133</v>
+        <v>1301081</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6320261495064475</v>
+        <v>0.6320261495064478</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6120931053073598</v>
+        <v>0.6110618600543248</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6518302188627374</v>
+        <v>0.6528074850342046</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>43210</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32277</v>
+        <v>32745</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56510</v>
+        <v>56431</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.07622449872741804</v>
+        <v>0.07622449872741802</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05693695333722355</v>
+        <v>0.05776368330095417</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09968574239717691</v>
+        <v>0.09954674238611912</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>188</v>
@@ -2198,19 +2198,19 @@
         <v>117368</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>101142</v>
+        <v>103480</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>134297</v>
+        <v>133395</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.141385379601577</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.121838958115681</v>
+        <v>0.1246559277771757</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1617785553323573</v>
+        <v>0.1606925182871037</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>240</v>
@@ -2219,19 +2219,19 @@
         <v>160578</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>140905</v>
+        <v>140652</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>182202</v>
+        <v>181948</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1149442369731483</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1008619648907758</v>
+        <v>0.1006808598330652</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1304231979870269</v>
+        <v>0.1302414313296675</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>47232</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34674</v>
+        <v>34888</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>65240</v>
+        <v>65010</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.08331951544388709</v>
+        <v>0.08331951544388708</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06116559253795421</v>
+        <v>0.06154282541426202</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.115084830331925</v>
+        <v>0.1146804568170782</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>208</v>
@@ -2269,19 +2269,19 @@
         <v>123432</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>108734</v>
+        <v>107077</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>141441</v>
+        <v>140641</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1486901500643976</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1309851809149869</v>
+        <v>0.1289886648309687</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1703844412314647</v>
+        <v>0.1694208279070723</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>256</v>
@@ -2290,19 +2290,19 @@
         <v>170664</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>148171</v>
+        <v>148901</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>196090</v>
+        <v>195592</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1221638930444855</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1060632576696112</v>
+        <v>0.1065858372028621</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1403638584742462</v>
+        <v>0.1400075792609717</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>83292</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>66202</v>
+        <v>68101</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>103398</v>
+        <v>101903</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1469304441852453</v>
+        <v>0.1469304441852452</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1167818780638709</v>
+        <v>0.1201327489561994</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.182398395486445</v>
+        <v>0.1797600756903063</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>302</v>
@@ -2340,19 +2340,19 @@
         <v>173979</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>155225</v>
+        <v>155633</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>193253</v>
+        <v>193353</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2095812579705646</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1869898527870507</v>
+        <v>0.187480787532826</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2327990087046975</v>
+        <v>0.2329199598420429</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>395</v>
@@ -2361,19 +2361,19 @@
         <v>257271</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>232102</v>
+        <v>234410</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>282000</v>
+        <v>285411</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1841586565437367</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1661421494941919</v>
+        <v>0.1677941067906378</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2018601438729221</v>
+        <v>0.2043015347569099</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>393147</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>369152</v>
+        <v>369416</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>415728</v>
+        <v>415059</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6935255416434496</v>
+        <v>0.6935255416434495</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6511965606567941</v>
+        <v>0.651663744901487</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7333595719019054</v>
+        <v>0.7321794019074538</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>591</v>
@@ -2411,19 +2411,19 @@
         <v>415348</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>391942</v>
+        <v>388201</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>439742</v>
+        <v>440720</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5003432123634608</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4721464644627196</v>
+        <v>0.4676408234745842</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5297286406013132</v>
+        <v>0.5309064470186148</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>944</v>
@@ -2432,19 +2432,19 @@
         <v>808496</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>771925</v>
+        <v>775301</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>840916</v>
+        <v>845614</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5787332134386295</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5525552179636529</v>
+        <v>0.5549723471755936</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.601939938068462</v>
+        <v>0.6053030093859023</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>10723</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3699</v>
+        <v>3721</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27214</v>
+        <v>26849</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04520248288864499</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01559197664860639</v>
+        <v>0.01568632431045228</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1147162576102123</v>
+        <v>0.1131760138910848</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>154</v>
@@ -2557,19 +2557,19 @@
         <v>96728</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>81638</v>
+        <v>83295</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>111408</v>
+        <v>113799</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1145681965324598</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09669582220479686</v>
+        <v>0.09865802305807896</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1319558083614489</v>
+        <v>0.1347885556413993</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>161</v>
@@ -2578,19 +2578,19 @@
         <v>107451</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>90786</v>
+        <v>90151</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>126745</v>
+        <v>130227</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09935290377538393</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08394372690166797</v>
+        <v>0.08335641307683343</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1171927655563946</v>
+        <v>0.1204119304325003</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>4205</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11335</v>
+        <v>11308</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0177268519006017</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003775017207378475</v>
+        <v>0.003757361824520522</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04778240238060305</v>
+        <v>0.0476660583350407</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>154</v>
@@ -2628,19 +2628,19 @@
         <v>95198</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>79913</v>
+        <v>82015</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>111796</v>
+        <v>113272</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1127563422803266</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09465240011472603</v>
+        <v>0.09714233531627747</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1324161080587852</v>
+        <v>0.1341635419289862</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>158</v>
@@ -2649,19 +2649,19 @@
         <v>99403</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>84198</v>
+        <v>83839</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>116742</v>
+        <v>117852</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09191172841088986</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07785270164582489</v>
+        <v>0.07752005454190866</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1079434943692449</v>
+        <v>0.1089700281200423</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>23058</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12408</v>
+        <v>12676</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38673</v>
+        <v>38917</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09719933534967422</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05230408075852168</v>
+        <v>0.05343382747631125</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1630190523405461</v>
+        <v>0.164050076043809</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>299</v>
@@ -2699,19 +2699,19 @@
         <v>166787</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>148131</v>
+        <v>147616</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>187219</v>
+        <v>187051</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1975486465067628</v>
+        <v>0.1975486465067629</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1754522302033739</v>
+        <v>0.1748427619776226</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2217495550860804</v>
+        <v>0.221551026310017</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>314</v>
@@ -2720,19 +2720,19 @@
         <v>189845</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>166548</v>
+        <v>168930</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>215354</v>
+        <v>216514</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1755371358191316</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1539954963038655</v>
+        <v>0.1561988036151759</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1991237652102176</v>
+        <v>0.2001960948759295</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>199241</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>179037</v>
+        <v>181980</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>212611</v>
+        <v>212653</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.839871329861079</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7547048379723814</v>
+        <v>0.7671101769120123</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8962315571466036</v>
+        <v>0.8964064575624052</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>552</v>
@@ -2770,19 +2770,19 @@
         <v>485569</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>459608</v>
+        <v>458490</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>513344</v>
+        <v>512250</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5751268146804508</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5443775087433382</v>
+        <v>0.5430543423425589</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6080249302845524</v>
+        <v>0.6067295033122487</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>638</v>
@@ -2791,19 +2791,19 @@
         <v>684810</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>648477</v>
+        <v>648615</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>718653</v>
+        <v>717125</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6331982319945947</v>
+        <v>0.6331982319945948</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5996042448424904</v>
+        <v>0.5997313934734688</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6644906881739621</v>
+        <v>0.6630777695842993</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>285481</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>253420</v>
+        <v>255964</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>319396</v>
+        <v>321206</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08297882366776874</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07366001331540488</v>
+        <v>0.07439936958512197</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09283679998663213</v>
+        <v>0.09336286895889402</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>608</v>
@@ -2916,19 +2916,19 @@
         <v>393033</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>363531</v>
+        <v>361033</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>423161</v>
+        <v>423884</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1081343756082979</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1000175952190527</v>
+        <v>0.09933024262807962</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1164233722242252</v>
+        <v>0.1166223520503782</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>922</v>
@@ -2937,19 +2937,19 @@
         <v>678514</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>633401</v>
+        <v>634672</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>723806</v>
+        <v>724339</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09590195416359378</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08952565411901664</v>
+        <v>0.08970531288234976</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1023036355803155</v>
+        <v>0.1023788965166394</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>247092</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>218297</v>
+        <v>217394</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>285406</v>
+        <v>281047</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0718204660298619</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06345090914674151</v>
+        <v>0.06318834328976029</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08295713860071609</v>
+        <v>0.08169018678571437</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>658</v>
@@ -2987,19 +2987,19 @@
         <v>414130</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>382016</v>
+        <v>384531</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>446460</v>
+        <v>449053</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.1139388742289402</v>
+        <v>0.1139388742289401</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1051033801394418</v>
+        <v>0.1057952494305762</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1228336883224501</v>
+        <v>0.123547136341661</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>928</v>
@@ -3008,19 +3008,19 @@
         <v>661222</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>615965</v>
+        <v>617260</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>709193</v>
+        <v>707880</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0934579036309096</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08706119394187264</v>
+        <v>0.08724430274744897</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1002381622869083</v>
+        <v>0.1000526275517083</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>575635</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>530566</v>
+        <v>529532</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>621890</v>
+        <v>621705</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1673159887993088</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1542160960085691</v>
+        <v>0.1539155616897601</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1807607619962562</v>
+        <v>0.1807068057133794</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1235</v>
@@ -3058,19 +3058,19 @@
         <v>736231</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>692843</v>
+        <v>697383</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>772663</v>
+        <v>778642</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2025577666801286</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1906207080250594</v>
+        <v>0.1918697294992189</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2125812129461927</v>
+        <v>0.2142264096299543</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1874</v>
@@ -3079,19 +3079,19 @@
         <v>1311866</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1254851</v>
+        <v>1253485</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1372131</v>
+        <v>1379616</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1854207036366304</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1773621339552613</v>
+        <v>0.17716909344094</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1939386813338437</v>
+        <v>0.1949965597525973</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>2332199</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2275066</v>
+        <v>2270544</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2390183</v>
+        <v>2387377</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6778847215030607</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6612784387189119</v>
+        <v>0.6599639432804209</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6947387267362871</v>
+        <v>0.6939230355340094</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2742</v>
@@ -3129,19 +3129,19 @@
         <v>2091276</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2037927</v>
+        <v>2038714</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2144870</v>
+        <v>2145574</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.5753689834826332</v>
+        <v>0.5753689834826333</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5606910199318027</v>
+        <v>0.5609076168013841</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5901140494151224</v>
+        <v>0.590307822312553</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4817</v>
@@ -3150,19 +3150,19 @@
         <v>4423476</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4347386</v>
+        <v>4348066</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4494912</v>
+        <v>4496163</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.6252194385688661</v>
+        <v>0.6252194385688662</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6144647831904146</v>
+        <v>0.6145609123001232</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6353162961736529</v>
+        <v>0.635493209902956</v>
       </c>
     </row>
     <row r="38">
